--- a/data/trans_dic/IP16A11_2023-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP16A11_2023-Habitat-trans_dic.xlsx
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>Menos de 2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>31,66%</t>
+          <t>12,07%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>35,77%</t>
+          <t>15,43%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>33,31%</t>
+          <t>14,13%</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>21,67; 42,49</t>
+          <t>0,0; 54,45</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>22,28; 48,37</t>
+          <t>0,0; 54,88</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>25,64; 41,99</t>
+          <t>0,0; 42,91</t>
         </is>
       </c>
     </row>
@@ -646,7 +646,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>10/50</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>30,49%</t>
+          <t>31,66%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>28,21%</t>
+          <t>35,77%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>29,38%</t>
+          <t>33,31%</t>
         </is>
       </c>
     </row>
@@ -679,24 +679,24 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>17,14; 45,66</t>
+          <t>21,67; 42,49</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>15,59; 40,65</t>
+          <t>22,28; 48,37</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>19,7; 38,74</t>
+          <t>25,64; 41,99</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>mas de 50</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>12,07%</t>
+          <t>43,06%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>15,43%</t>
+          <t>43,16%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>14,13%</t>
+          <t>43,11%</t>
         </is>
       </c>
     </row>
@@ -729,24 +729,24 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 54,45</t>
+          <t>29,45; 55,57</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 54,88</t>
+          <t>26,55; 57,82</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 42,91</t>
+          <t>31,43; 52,45</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>43,06%</t>
+          <t>30,49%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>43,16%</t>
+          <t>28,21%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>43,11%</t>
+          <t>29,38%</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>29,45; 55,57</t>
+          <t>17,14; 45,66</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>26,55; 57,82</t>
+          <t>15,59; 40,65</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>31,43; 52,45</t>
+          <t>19,7; 38,74</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP16A11_2023-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP16A11_2023-Habitat-trans_dic.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,39; 24,28</t>
+          <t>3,88; 28,81</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>23,77; 57,93</t>
+          <t>22,15; 54,96</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>15,26; 35,41</t>
+          <t>14,89; 35,99</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>21,67; 42,49</t>
+          <t>21,59; 42,64</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>22,28; 48,37</t>
+          <t>24,06; 48,25</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>25,64; 41,99</t>
+          <t>25,91; 41,12</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>29,45; 55,57</t>
+          <t>29,81; 56,33</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>26,55; 57,82</t>
+          <t>24,37; 56,55</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>31,43; 52,45</t>
+          <t>33,13; 52,8</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>17,14; 45,66</t>
+          <t>18,02; 45,37</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>15,59; 40,65</t>
+          <t>16,56; 42,45</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>19,7; 38,74</t>
+          <t>20,45; 38,83</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,24 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>25,66; 38,59</t>
+          <t>25,87; 38,94</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>29,14; 43,57</t>
+          <t>28,16; 43,3</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>29,02; 38,24</t>
+          <t>29,18; 38,56</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP16A11_2023-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP16A11_2023-Habitat-trans_dic.xlsx
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -579,24 +579,24 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 54,45</t>
+          <t>0,0; 53,73</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 54,88</t>
+          <t>0,0; 58,62</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 42,91</t>
+          <t>0,0; 45,91</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -629,24 +629,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,88; 28,81</t>
+          <t>2,57; 26,73</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>22,15; 54,96</t>
+          <t>22,17; 58,13</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>14,89; 35,99</t>
+          <t>14,69; 35,52</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -679,24 +679,24 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>21,59; 42,64</t>
+          <t>22,01; 42,96</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>24,06; 48,25</t>
+          <t>23,23; 49,12</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>25,91; 41,12</t>
+          <t>24,85; 41,35</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>29,81; 56,33</t>
+          <t>29,41; 55,35</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>24,37; 56,55</t>
+          <t>22,5; 56,37</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>33,13; 52,8</t>
+          <t>30,75; 52,1</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>18,02; 45,37</t>
+          <t>18,41; 45,58</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>16,56; 42,45</t>
+          <t>16,94; 42,11</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>20,45; 38,83</t>
+          <t>20,23; 38,98</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>25,87; 38,94</t>
+          <t>26,08; 38,0</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>28,16; 43,3</t>
+          <t>29,28; 44,19</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>29,18; 38,56</t>
+          <t>29,35; 38,91</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP16A11_2023-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP16A11_2023-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -503,12 +503,12 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="E1" s="3" t="inlineStr">
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>12,07%</t>
+          <t>32,57%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>15,43%</t>
+          <t>10,34%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>14,13%</t>
+          <t>21,21%</t>
         </is>
       </c>
     </row>
@@ -579,24 +579,24 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 53,73</t>
+          <t>19,66; 47,72</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 58,62</t>
+          <t>3,5; 23,45</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 45,91</t>
+          <t>14,05; 31,28</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>10,61%</t>
+          <t>33,42%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>39,12%</t>
+          <t>31,81%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>24,16%</t>
+          <t>32,48%</t>
         </is>
       </c>
     </row>
@@ -629,24 +629,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,57; 26,73</t>
+          <t>17,9; 46,66</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>22,17; 58,13</t>
+          <t>21,78; 42,5</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>14,69; 35,52</t>
+          <t>23,96; 41,38</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>31,66%</t>
+          <t>31,77%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>35,77%</t>
+          <t>44,25%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>33,31%</t>
+          <t>37,07%</t>
         </is>
       </c>
     </row>
@@ -679,24 +679,24 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>22,01; 42,96</t>
+          <t>12,25; 53,4</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>23,23; 49,12</t>
+          <t>29,89; 57,09</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>24,85; 41,35</t>
+          <t>19,76; 49,99</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>43,06%</t>
+          <t>28,71%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>43,16%</t>
+          <t>30,08%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>43,11%</t>
+          <t>29,43%</t>
         </is>
       </c>
     </row>
@@ -729,24 +729,24 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>29,41; 55,35</t>
+          <t>15,65; 41,13</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>22,5; 56,37</t>
+          <t>16,69; 45,04</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>30,75; 52,1</t>
+          <t>20,12; 39,22</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>30,49%</t>
+          <t>31,78%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>28,21%</t>
+          <t>32,06%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>29,38%</t>
+          <t>31,92%</t>
         </is>
       </c>
     </row>
@@ -779,86 +779,35 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>18,41; 45,58</t>
+          <t>19,31; 40,24</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>16,94; 42,11</t>
+          <t>25,86; 39,1</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>20,23; 38,98</t>
+          <t>24,16; 36,15</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>31,8%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>36,58%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>34,07%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>26,08; 38,0</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>29,28; 44,19</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>29,35; 38,91</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="6">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
